--- a/medicine/Pharmacie/Orphanet/Orphanet.xlsx
+++ b/medicine/Pharmacie/Orphanet/Orphanet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orphanet est un portail et serveur d'informations dédié aux maladies rares et aux médicaments orphelins en libre accès pour tous publics.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orphanet a été créé en France par la docteure Segolène Aymé, au sein de l’INSERM (Institut national de la santé et de la recherche médicale) en 1996 (par la fusion des deux bases de données existantes, d'abord en français uniquement)[1]. 
-Lorsque Internet s'est développé, il est devenu possible de partager ces ressources avec l'ensemble de la communauté. Une version en anglais est née en  2001 grâce à une subvention européenne[1]. 
-En 2018[1], les renseignements y sont 7 langues, ainsi que sur orphadata.com sous forme de fichiers téléchargeables. Les communautés médicales et scientifiques ont alors pu de manière collaborative et pluridisciplinaire contribuer à sans cesse compléter la base, qui est rapidement devenu la référence internationale dans son domaine[1].
-L'objectif premier d'Orphanet était de faciliter le diagnostic des maladies génétiques rares grâce à une base de données regroupant toutes les maladies génétiques et syndromes de malformations congénitales déjà décrits par la littérature scientifique et médicale[1]. Il s'est élargi, visant à concourir à l'amélioration de la prise en charge et du traitement des maladies rares, qu'elles soient d'origine génétique, auto-immune ou infectieuse, qu'il s'agisse de cancers rares ou de maladies sans diagnostic précis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orphanet a été créé en France par la docteure Segolène Aymé, au sein de l’INSERM (Institut national de la santé et de la recherche médicale) en 1996 (par la fusion des deux bases de données existantes, d'abord en français uniquement). 
+Lorsque Internet s'est développé, il est devenu possible de partager ces ressources avec l'ensemble de la communauté. Une version en anglais est née en  2001 grâce à une subvention européenne. 
+En 2018, les renseignements y sont 7 langues, ainsi que sur orphadata.com sous forme de fichiers téléchargeables. Les communautés médicales et scientifiques ont alors pu de manière collaborative et pluridisciplinaire contribuer à sans cesse compléter la base, qui est rapidement devenu la référence internationale dans son domaine.
+L'objectif premier d'Orphanet était de faciliter le diagnostic des maladies génétiques rares grâce à une base de données regroupant toutes les maladies génétiques et syndromes de malformations congénitales déjà décrits par la littérature scientifique et médicale. Il s'est élargi, visant à concourir à l'amélioration de la prise en charge et du traitement des maladies rares, qu'elles soient d'origine génétique, auto-immune ou infectieuse, qu'il s'agisse de cancers rares ou de maladies sans diagnostic précis.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Orphanet en 2024 propose divers services[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Orphanet en 2024 propose divers services :
 Inventaire, classification, annotations phénotypiques, conséquences fonctionnelles et encyclopédie des maladies rares (avec « numéro ORPHA » de la nomenclature, et gènes liés) ;
 Inventaire des médicaments orphelins, notamment disponible sur la plateforme Orphadata qui met à disposition de la communauté scientifique des jeux de données dans un format informatisé et réutilisable ;
 Répertoire des associations et services aux patients ;
